--- a/Word and Exel/Викладачі.xlsx
+++ b/Word and Exel/Викладачі.xlsx
@@ -709,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H21"/>
+  <x:dimension ref="A1:H25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1268,7 +1268,111 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="H21" s="2">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
+      <x:c r="A22" s="2">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D22" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E22" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F22" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="G22" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H22" s="2">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8">
+      <x:c r="A23" s="2">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D23" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E23" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F23" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G23" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H23" s="2">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
+      <x:c r="A24" s="2">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D24" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E24" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F24" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G24" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H24" s="2">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8">
+      <x:c r="A25" s="2">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D25" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E25" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F25" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G25" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H25" s="2">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Word and Exel/Викладачі.xlsx
+++ b/Word and Exel/Викладачі.xlsx
@@ -709,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H25"/>
+  <x:dimension ref="A1:H21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1271,110 +1271,6 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:8">
-      <x:c r="A22" s="2">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D22" s="2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E22" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="F22" s="3" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="G22" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="H22" s="2">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:8">
-      <x:c r="A23" s="2">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D23" s="2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E23" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F23" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G23" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H23" s="2">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:8">
-      <x:c r="A24" s="2">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D24" s="2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E24" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F24" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G24" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H24" s="2">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:8">
-      <x:c r="A25" s="2">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D25" s="2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E25" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F25" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G25" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H25" s="2">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
